--- a/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A333374-8CEF-4F30-A287-C557614B36FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{234C1B03-85C0-4712-80F9-A04DFF84CF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F029F69F-B5A0-43C4-BF60-224FBE2F6547}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3055BD5-FFEA-4398-B201-FEA006466C11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -305,163 +305,157 @@
     <t>24,71%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>91,94%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>17,89%</t>
@@ -470,31 +464,31 @@
     <t>16,46%</t>
   </si>
   <si>
-    <t>19,21%</t>
+    <t>19,23%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>80,77%</t>
   </si>
   <si>
     <t>83,54%</t>
@@ -503,19 +497,19 @@
     <t>66,54%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>74,18%</t>
   </si>
   <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
@@ -524,55 +518,55 @@
     <t>24,04%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -581,154 +575,160 @@
     <t>15,5%</t>
   </si>
   <si>
-    <t>19,07%</t>
+    <t>18,82%</t>
   </si>
   <si>
     <t>27,25%</t>
   </si>
   <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
     <t>25,39%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>74,61%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>79,99%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
@@ -737,217 +737,211 @@
     <t>34,25%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>59,79%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>80,37%</t>
   </si>
   <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>59,03%</t>
   </si>
   <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D331D5A-1B62-4A7D-AAAE-8217B0EC762F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C958AF-4986-4AF7-8567-F5B6723D43C6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A98B393-47C7-4EDA-904E-F1C94CF21B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DB595A-014F-40B3-BD55-528D19636427}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2550,7 +2544,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2559,13 +2553,13 @@
         <v>122744</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -2574,13 +2568,13 @@
         <v>174313</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2589,13 @@
         <v>428763</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -2610,13 +2604,13 @@
         <v>334910</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>691</v>
@@ -2625,13 +2619,13 @@
         <v>763673</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2693,13 @@
         <v>610656</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1097</v>
@@ -2714,13 +2708,13 @@
         <v>1186806</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1664</v>
@@ -2729,13 +2723,13 @@
         <v>1797462</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2744,13 @@
         <v>2803526</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2190</v>
@@ -2765,13 +2759,13 @@
         <v>2360110</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>4819</v>
@@ -2780,13 +2774,13 @@
         <v>5163636</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F82DA11-E0E9-4282-8F2B-59CA7FB3D6DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBDDC81-EABC-41D6-9891-171BB6EDBCD1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2979,13 @@
         <v>181320</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>365</v>
@@ -3000,13 +2994,13 @@
         <v>413629</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>550</v>
@@ -3015,13 +3009,13 @@
         <v>594949</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3030,13 @@
         <v>573027</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>527</v>
@@ -3051,13 +3045,13 @@
         <v>581031</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1104</v>
@@ -3066,13 +3060,13 @@
         <v>1154058</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3134,13 @@
         <v>354581</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>507</v>
@@ -3155,13 +3149,13 @@
         <v>541859</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>839</v>
@@ -3170,13 +3164,13 @@
         <v>896441</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3185,13 @@
         <v>1721804</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1401</v>
@@ -3206,13 +3200,13 @@
         <v>1446441</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3021</v>
@@ -3221,13 +3215,13 @@
         <v>3168244</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3289,13 @@
         <v>100147</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3310,13 +3304,13 @@
         <v>144749</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3325,13 +3319,13 @@
         <v>244896</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3340,13 @@
         <v>446739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -3612,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE53032-5E8B-46FF-8501-B9D9FBE03629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37201ED-2135-45CA-AC4D-C60AE0D52776}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3954,7 +3948,7 @@
         <v>1799</v>
       </c>
       <c r="I8" s="7">
-        <v>1403042</v>
+        <v>1403041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -4005,7 +3999,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4076,13 +4070,13 @@
         <v>343358</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4091,13 @@
         <v>540946</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>697</v>
@@ -4112,13 +4106,13 @@
         <v>502621</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1250</v>
@@ -4127,13 +4121,13 @@
         <v>1043568</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>799319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>2307</v>
@@ -4216,13 +4210,13 @@
         <v>1554800</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>3190</v>
@@ -4231,13 +4225,13 @@
         <v>2354120</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,16 +4243,16 @@
         <v>2481</v>
       </c>
       <c r="D14" s="7">
-        <v>2577376</v>
+        <v>2577375</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>3042</v>
@@ -4267,13 +4261,13 @@
         <v>2240431</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>5523</v>
@@ -4282,13 +4276,13 @@
         <v>4817806</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4294,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{234C1B03-85C0-4712-80F9-A04DFF84CF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF9A205-B276-47CE-983A-0E06E7ADBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3055BD5-FFEA-4398-B201-FEA006466C11}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EFA4DB1-A850-4307-9E49-B37C2BA5E117}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>18,61%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,39%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,103 +197,103 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -305,583 +305,595 @@
     <t>24,71%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>40,9%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>75,29%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>59,1%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>16,25%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>83,75%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>8,06%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>91,94%</t>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
   </si>
   <si>
     <t>75,24%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
   </si>
   <si>
     <t>72,82%</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C958AF-4986-4AF7-8567-F5B6723D43C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415635A2-A5C4-41E0-81B5-7BA7224E3FDF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2020,7 +2032,7 @@
         <v>5263</v>
       </c>
       <c r="N14" s="7">
-        <v>5392311</v>
+        <v>5392312</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2071,7 +2083,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DB595A-014F-40B3-BD55-528D19636427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D7CC57-0AFA-45FC-87CE-51ACC39671D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2544,7 +2556,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2553,13 +2565,13 @@
         <v>122744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -2568,13 +2580,13 @@
         <v>174313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2601,13 @@
         <v>428763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -2604,13 +2616,13 @@
         <v>334910</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>691</v>
@@ -2619,13 +2631,13 @@
         <v>763673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2705,13 @@
         <v>610656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>1097</v>
@@ -2708,13 +2720,13 @@
         <v>1186806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>1664</v>
@@ -2723,13 +2735,13 @@
         <v>1797462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2756,13 @@
         <v>2803526</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>2190</v>
@@ -2759,13 +2771,13 @@
         <v>2360110</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>4819</v>
@@ -2774,13 +2786,13 @@
         <v>5163636</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBDDC81-EABC-41D6-9891-171BB6EDBCD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0C5B5-6264-48D0-8E50-CD2BC0997306}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2991,13 @@
         <v>181320</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>365</v>
@@ -2994,13 +3006,13 @@
         <v>413629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>550</v>
@@ -3009,13 +3021,13 @@
         <v>594949</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>573027</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>527</v>
@@ -3045,13 +3057,13 @@
         <v>581031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1104</v>
@@ -3060,13 +3072,13 @@
         <v>1154058</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>354581</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>507</v>
@@ -3149,13 +3161,13 @@
         <v>541859</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>839</v>
@@ -3164,13 +3176,13 @@
         <v>896441</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>1721804</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1401</v>
@@ -3200,13 +3212,13 @@
         <v>1446441</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3021</v>
@@ -3215,13 +3227,13 @@
         <v>3168244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>100147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3304,13 +3316,13 @@
         <v>144749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3319,13 +3331,13 @@
         <v>244896</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>446739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -3355,13 +3367,13 @@
         <v>404391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -3370,13 +3382,13 @@
         <v>851130</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>636048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1011</v>
@@ -3459,13 +3471,13 @@
         <v>1100237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1619</v>
@@ -3474,13 +3486,13 @@
         <v>1736286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>2741570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2315</v>
@@ -3510,13 +3522,13 @@
         <v>2431863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4922</v>
@@ -3525,13 +3537,13 @@
         <v>5173432</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37201ED-2135-45CA-AC4D-C60AE0D52776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA73AA-0166-493B-B8A7-5C81B99511E3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>185515</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>879</v>
@@ -3745,13 +3757,13 @@
         <v>497781</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1136</v>
@@ -3760,13 +3772,13 @@
         <v>683297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>356119</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
@@ -3796,13 +3808,13 @@
         <v>334768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>980</v>
@@ -3811,13 +3823,13 @@
         <v>690886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>481711</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1121</v>
@@ -3900,13 +3912,13 @@
         <v>845754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>1619</v>
@@ -3915,13 +3927,13 @@
         <v>1327465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>1680311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1799</v>
@@ -3951,13 +3963,13 @@
         <v>1403041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3293</v>
@@ -3966,13 +3978,13 @@
         <v>3083352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>132093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -4055,13 +4067,13 @@
         <v>211265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>435</v>
@@ -4070,13 +4082,13 @@
         <v>343358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>540946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>697</v>
@@ -4106,13 +4118,13 @@
         <v>502621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1250</v>
@@ -4121,13 +4133,13 @@
         <v>1043568</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>799319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2307</v>
@@ -4210,13 +4222,13 @@
         <v>1554800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3190</v>
@@ -4225,13 +4237,13 @@
         <v>2354120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>2577375</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3042</v>
@@ -4261,13 +4273,13 @@
         <v>2240431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5523</v>
@@ -4276,13 +4288,13 @@
         <v>4817806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AF9A205-B276-47CE-983A-0E06E7ADBFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD39726-DA85-436E-B175-3F697259C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7EFA4DB1-A850-4307-9E49-B37C2BA5E117}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E50586FB-E40C-4C34-B058-FE4B3B47C2E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
   </si>
   <si>
     <t>31,99%</t>
   </si>
   <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>81,39%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>11,81%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,763 +197,757 @@
     <t>11,58%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>18,02%</t>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2012 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>69,9%</t>
   </si>
   <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
   </si>
   <si>
     <t>80,37%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>23,67%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>40,97%</t>
   </si>
   <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>76,33%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>59,03%</t>
   </si>
   <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415635A2-A5C4-41E0-81B5-7BA7224E3FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CFEBD9-591F-40CE-A66F-FB59A1B02306}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2026,7 @@
         <v>5263</v>
       </c>
       <c r="N14" s="7">
-        <v>5392312</v>
+        <v>5392311</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>82</v>
@@ -2083,7 +2077,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D7CC57-0AFA-45FC-87CE-51ACC39671D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F0C6FD-3D05-4874-A6E3-17D40FE92492}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB0C5B5-6264-48D0-8E50-CD2BC0997306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A8299-4FCA-45E7-AC1B-8B321847F1A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,10 +3298,10 @@
         <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -3316,13 +3310,13 @@
         <v>144749</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -3331,13 +3325,13 @@
         <v>244896</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3346,13 @@
         <v>446739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -3367,13 +3361,13 @@
         <v>404391</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>797</v>
@@ -3382,13 +3376,13 @@
         <v>851130</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>636048</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>1011</v>
@@ -3471,13 +3465,13 @@
         <v>1100237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1619</v>
@@ -3486,13 +3480,13 @@
         <v>1736286</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>2741570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2315</v>
@@ -3522,13 +3516,13 @@
         <v>2431863</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>4922</v>
@@ -3537,13 +3531,13 @@
         <v>5173432</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA73AA-0166-493B-B8A7-5C81B99511E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E448-CCFF-4626-8B4C-71E3566CAEB4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3736,13 @@
         <v>185515</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>879</v>
@@ -3757,13 +3751,13 @@
         <v>497781</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1136</v>
@@ -3772,13 +3766,13 @@
         <v>683297</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>356119</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>546</v>
@@ -3808,13 +3802,13 @@
         <v>334768</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>980</v>
@@ -3823,13 +3817,13 @@
         <v>690886</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>481711</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1121</v>
@@ -3912,13 +3906,13 @@
         <v>845754</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>1619</v>
@@ -3927,13 +3921,13 @@
         <v>1327465</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,28 +3942,28 @@
         <v>1680311</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1799</v>
       </c>
       <c r="I8" s="7">
-        <v>1403041</v>
+        <v>1403042</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3293</v>
@@ -3978,13 +3972,13 @@
         <v>3083352</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4005,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,13 +4046,13 @@
         <v>132093</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>307</v>
@@ -4067,13 +4061,13 @@
         <v>211265</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>435</v>
@@ -4082,13 +4076,13 @@
         <v>343358</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>540946</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>697</v>
@@ -4118,13 +4112,13 @@
         <v>502621</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1250</v>
@@ -4133,13 +4127,13 @@
         <v>1043568</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>799319</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2307</v>
@@ -4222,13 +4216,13 @@
         <v>1554800</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3190</v>
@@ -4237,13 +4231,13 @@
         <v>2354120</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,16 +4249,16 @@
         <v>2481</v>
       </c>
       <c r="D14" s="7">
-        <v>2577375</v>
+        <v>2577376</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3042</v>
@@ -4273,13 +4267,13 @@
         <v>2240431</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5523</v>
@@ -4288,13 +4282,13 @@
         <v>4817806</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD39726-DA85-436E-B175-3F697259C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F9E56B3-5507-461C-99CF-56D8879BB36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E50586FB-E40C-4C34-B058-FE4B3B47C2E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A9299F-6DBA-4ECF-B948-DE9742CBE0C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -734,220 +734,220 @@
     <t>Población según si ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CFEBD9-591F-40CE-A66F-FB59A1B02306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA0BC01-4D02-4DCA-A255-DF38F6CD9970}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1561,7 +1561,7 @@
         <v>1724</v>
       </c>
       <c r="N5" s="7">
-        <v>1734124</v>
+        <v>1734123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1612,7 +1612,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1716,7 +1716,7 @@
         <v>2713</v>
       </c>
       <c r="N8" s="7">
-        <v>2785387</v>
+        <v>2785386</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1767,7 +1767,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2011,7 +2011,7 @@
         <v>2514</v>
       </c>
       <c r="I14" s="7">
-        <v>2572581</v>
+        <v>2572580</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>79</v>
@@ -2062,7 +2062,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F0C6FD-3D05-4874-A6E3-17D40FE92492}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A9FD54-8F5A-4BA9-BC25-3255C71333CF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2312,7 +2312,7 @@
         <v>1419</v>
       </c>
       <c r="N5" s="7">
-        <v>1521337</v>
+        <v>1521336</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>102</v>
@@ -2363,7 +2363,7 @@
         <v>2150</v>
       </c>
       <c r="N6" s="7">
-        <v>2307356</v>
+        <v>2307355</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0A8299-4FCA-45E7-AC1B-8B321847F1A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DEE8C7-9852-4819-AA66-1C3FAC1EA63F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3373,7 +3373,7 @@
         <v>797</v>
       </c>
       <c r="N11" s="7">
-        <v>851130</v>
+        <v>851131</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>209</v>
@@ -3424,7 +3424,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9064E448-CCFF-4626-8B4C-71E3566CAEB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E39FDD6-4E8D-45CC-A78C-6AD970F90EA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>257</v>
       </c>
       <c r="D4" s="7">
-        <v>185515</v>
+        <v>176756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3748,7 +3748,7 @@
         <v>879</v>
       </c>
       <c r="I4" s="7">
-        <v>497781</v>
+        <v>449881</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>234</v>
@@ -3763,7 +3763,7 @@
         <v>1136</v>
       </c>
       <c r="N4" s="7">
-        <v>683297</v>
+        <v>626637</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>237</v>
@@ -3784,7 +3784,7 @@
         <v>434</v>
       </c>
       <c r="D5" s="7">
-        <v>356119</v>
+        <v>338182</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>240</v>
@@ -3799,7 +3799,7 @@
         <v>546</v>
       </c>
       <c r="I5" s="7">
-        <v>334768</v>
+        <v>302747</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>243</v>
@@ -3814,7 +3814,7 @@
         <v>980</v>
       </c>
       <c r="N5" s="7">
-        <v>690886</v>
+        <v>640929</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>246</v>
@@ -3835,7 +3835,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832549</v>
+        <v>752628</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1374183</v>
+        <v>1267566</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3888,7 @@
         <v>498</v>
       </c>
       <c r="D7" s="7">
-        <v>481711</v>
+        <v>470523</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>249</v>
@@ -3903,7 +3903,7 @@
         <v>1121</v>
       </c>
       <c r="I7" s="7">
-        <v>845754</v>
+        <v>884546</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>252</v>
@@ -3918,7 +3918,7 @@
         <v>1619</v>
       </c>
       <c r="N7" s="7">
-        <v>1327465</v>
+        <v>1355069</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>255</v>
@@ -3939,7 +3939,7 @@
         <v>1494</v>
       </c>
       <c r="D8" s="7">
-        <v>1680311</v>
+        <v>1819804</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3954,7 +3954,7 @@
         <v>1799</v>
       </c>
       <c r="I8" s="7">
-        <v>1403042</v>
+        <v>1352599</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
@@ -3969,7 +3969,7 @@
         <v>3293</v>
       </c>
       <c r="N8" s="7">
-        <v>3083352</v>
+        <v>3172403</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>264</v>
@@ -3990,7 +3990,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4043,7 @@
         <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>132093</v>
+        <v>128330</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>267</v>
@@ -4058,7 +4058,7 @@
         <v>307</v>
       </c>
       <c r="I10" s="7">
-        <v>211265</v>
+        <v>196889</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>435</v>
       </c>
       <c r="N10" s="7">
-        <v>343358</v>
+        <v>325220</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>273</v>
@@ -4094,7 +4094,7 @@
         <v>553</v>
       </c>
       <c r="D11" s="7">
-        <v>540946</v>
+        <v>518293</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>276</v>
@@ -4109,7 +4109,7 @@
         <v>697</v>
       </c>
       <c r="I11" s="7">
-        <v>502621</v>
+        <v>463574</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>279</v>
@@ -4124,7 +4124,7 @@
         <v>1250</v>
       </c>
       <c r="N11" s="7">
-        <v>1043568</v>
+        <v>981866</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>282</v>
@@ -4145,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4198,7 @@
         <v>883</v>
       </c>
       <c r="D13" s="7">
-        <v>799319</v>
+        <v>775610</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>285</v>
@@ -4213,7 +4213,7 @@
         <v>2307</v>
       </c>
       <c r="I13" s="7">
-        <v>1554800</v>
+        <v>1531316</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>288</v>
@@ -4228,7 +4228,7 @@
         <v>3190</v>
       </c>
       <c r="N13" s="7">
-        <v>2354120</v>
+        <v>2306926</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>291</v>
@@ -4249,7 +4249,7 @@
         <v>2481</v>
       </c>
       <c r="D14" s="7">
-        <v>2577376</v>
+        <v>2676279</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>294</v>
@@ -4264,7 +4264,7 @@
         <v>3042</v>
       </c>
       <c r="I14" s="7">
-        <v>2240431</v>
+        <v>2118920</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>297</v>
@@ -4279,7 +4279,7 @@
         <v>5523</v>
       </c>
       <c r="N14" s="7">
-        <v>4817806</v>
+        <v>4795199</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795231</v>
+        <v>3650236</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>8713</v>
       </c>
       <c r="N15" s="7">
-        <v>7171926</v>
+        <v>7102125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
